--- a/xlsx/大众高尔夫_intext.xlsx
+++ b/xlsx/大众高尔夫_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>福斯汽車</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_大众高尔夫</t>
+    <t>福斯汽车</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_大众高尔夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A7%E5%87%91%E5%9E%8B%E8%BD%BF%E8%BD%A6</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%A3%E6%B5%81</t>
   </si>
   <si>
-    <t>灣流</t>
+    <t>湾流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%88%BE%E5%A4%AB%E7%90%83</t>
   </si>
   <si>
-    <t>高爾夫球</t>
+    <t>高尔夫球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E8%90%A8%E7%89%B9</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%9A%E9%A2%A8</t>
   </si>
   <si>
-    <t>焚風</t>
+    <t>焚风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B4%9B%E5%8F%AF%E9%A3%8E</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>意大利語</t>
+    <t>意大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AF%E9%81%8A</t>
   </si>
   <si>
-    <t>壯遊</t>
+    <t>壮游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E8%BD%A6</t>
@@ -227,19 +227,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99%E5%99%B4%E5%B0%84%E8%A3%9D%E7%BD%AE</t>
   </si>
   <si>
-    <t>燃料噴射裝置</t>
+    <t>燃料喷射装置</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%A3%AB%E7%94%B2%E8%9F%B2%E8%BB%8A</t>
   </si>
   <si>
-    <t>福士甲蟲車</t>
+    <t>福士甲虫车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AE%BE%E8%AE%A1-%E4%B9%94%E6%B2%BB%E4%BA%9A%E7%BD%97%E5%85%AC%E5%8F%B8</t>
@@ -251,19 +251,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%B8%E8%B7%9D</t>
   </si>
   <si>
-    <t>軸距</t>
+    <t>轴距</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%BC%AA%E9%A9%85%E5%8B%95</t>
   </si>
   <si>
-    <t>四輪驅動</t>
+    <t>四轮驱动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>賓夕法尼亞州</t>
+    <t>宾夕法尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%B9%B4%E5%BA%A6%E9%A2%A8%E9%9B%B2%E8%BB%8A</t>
   </si>
   <si>
-    <t>歐洲年度風雲車</t>
+    <t>欧洲年度风云车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E7%BC%B8</t>
@@ -299,13 +299,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E9%96%80</t>
   </si>
   <si>
-    <t>汽門</t>
+    <t>汽门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%82%E7%BD%AE%E5%87%B8%E8%BC%AA%E8%BB%B8</t>
   </si>
   <si>
-    <t>頂置凸輪軸</t>
+    <t>顶置凸轮轴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E6%B1%BD%E5%A4%A7%E4%BC%97</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E8%BB%8A%E5%B1%95</t>
   </si>
   <si>
-    <t>巴黎車展</t>
+    <t>巴黎车展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B4%E6%B2%B9%E5%BC%95%E6%93%8E</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%A3%AB%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>福士集團</t>
+    <t>福士集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BC%97%E9%9B%86%E5%9B%A2MQB%E5%B9%B3%E5%8F%B0</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%A2%9E%E5%A3%93%E5%99%A8</t>
   </si>
   <si>
-    <t>雙增壓器</t>
+    <t>双增压器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E5%8C%A0%E5%85%84%E5%A6%B9</t>
@@ -425,13 +425,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%8A%9F%E8%83%BD%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>多功能休旅車</t>
+    <t>多功能休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%82%E5%9E%8B%E8%BB%8A</t>
   </si>
   <si>
-    <t>廂型車</t>
+    <t>厢型车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BC%97%E9%9D%A2%E5%8C%85%E8%BD%A6</t>
@@ -473,13 +473,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E5%BF%B5%E8%BB%8A</t>
   </si>
   <si>
-    <t>概念車</t>
+    <t>概念车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
